--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1184413.7987512</v>
+        <v>1176374.091154866</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11679880.23546895</v>
+        <v>11442741.15847844</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>810371.6679063039</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10898166.83448692</v>
+        <v>11012415.03051473</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194.5717957163696</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>302.8018256721967</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.5747521014986</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>311.5368214983627</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>105.305231911186</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.8839162883579</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>98.13877262936589</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>39.14283080056359</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.534544747311443</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>144.5717250292702</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>194.2815128878493</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8453557076292</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.09643434046116</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,19 +828,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.7672990161534</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>151.34754182767</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.6510697241112</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.84497991568287</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>129.2224443473098</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>79.48991809722324</v>
       </c>
       <c r="G5" t="n">
-        <v>412.5747521014986</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>311.5368214983627</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>81.96267826989086</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1274140747456</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8839162883579</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>98.13877262936589</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>39.14283080056359</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.534544747311443</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>144.5717250292702</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2815128878493</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8453557076292</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>113.4529857012957</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>151.34754182767</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.2722734404206</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6911869806141</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>115.5271321035616</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5081677334447</v>
+        <v>411.4880739292253</v>
       </c>
       <c r="H8" t="n">
-        <v>16.87894115613479</v>
+        <v>300.4078786665683</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>63.41107167461783</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.5513106859778</v>
+        <v>122.0934231223255</v>
       </c>
       <c r="T8" t="n">
-        <v>206.4851203447821</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0420873253013</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>132.8978603757456</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3132433408657</v>
+        <v>135.3024922077873</v>
       </c>
       <c r="H9" t="n">
-        <v>92.62727337332285</v>
+        <v>92.52344006174991</v>
       </c>
       <c r="I9" t="n">
-        <v>19.4946613364683</v>
+        <v>19.12450171074273</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.9717253247551</v>
+        <v>133.7720277432331</v>
       </c>
       <c r="T9" t="n">
-        <v>191.9813004372119</v>
+        <v>191.9379658262512</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8078114347679</v>
+        <v>225.8071041233812</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2798525983037</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.3534041019608</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2261868089635</v>
+        <v>56.96865429152432</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.0130191952254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.45713216103701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>336.9988458128503</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1426,16 +1426,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.7576914549238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>101.3208278811443</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>32.97988876732279</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>347.0529466508824</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.1060858996728</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.92876070256</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.555304731341</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>85.30718206554508</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>3.524715130804566</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>119.893348082049</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.926275954084</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7579470525623</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>115.9266748459833</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.6534357177052</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>72.18892913019803</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.2795874976588</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.9579029632438</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1915269760862</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>34.69211367164815</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>221.6488161050624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>30.40549967255502</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>247.2924896597638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>72.97607332171654</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>20.3842717819797</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>241.143581509382</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2414.008029922736</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="C2" t="n">
-        <v>2045.045512982324</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="D2" t="n">
-        <v>1686.779814375574</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E2" t="n">
-        <v>1300.99156177733</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F2" t="n">
-        <v>890.0056569877222</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G2" t="n">
-        <v>473.2634831478246</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>158.5798250686703</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>269.6001159658155</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>716.1549966909988</v>
+        <v>333.6203513047262</v>
       </c>
       <c r="L2" t="n">
-        <v>908.9378384515237</v>
+        <v>472.9490071459794</v>
       </c>
       <c r="M2" t="n">
-        <v>1155.115332631096</v>
+        <v>1104.666818129291</v>
       </c>
       <c r="N2" t="n">
-        <v>1409.890044415973</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O2" t="n">
-        <v>2014.123498396843</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P2" t="n">
-        <v>2492.148389026958</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
-        <v>2610.545197313008</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2610.545197313008</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2610.545197313008</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2610.545197313008</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2610.545197313008</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>2610.545197313008</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W2" t="n">
-        <v>2610.545197313008</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X2" t="n">
-        <v>2610.545197313008</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="Y2" t="n">
-        <v>2610.545197313008</v>
+        <v>2010.339374490333</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>957.2951232594187</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C3" t="n">
-        <v>782.8420939782917</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D3" t="n">
-        <v>633.9076843170403</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E3" t="n">
-        <v>474.6702293115848</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F3" t="n">
-        <v>328.1356713384698</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G3" t="n">
-        <v>190.8791902391183</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H3" t="n">
-        <v>91.7491168761224</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I3" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J3" t="n">
-        <v>63.16292468990572</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K3" t="n">
-        <v>421.857081920372</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L3" t="n">
-        <v>965.5700382119222</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M3" t="n">
-        <v>1190.988621448603</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N3" t="n">
-        <v>1513.540689789368</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O3" t="n">
-        <v>2106.097520415243</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P3" t="n">
-        <v>2564.673550048093</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q3" t="n">
-        <v>2610.545197313008</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R3" t="n">
-        <v>2600.914344032896</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S3" t="n">
-        <v>2454.882298548785</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T3" t="n">
-        <v>2258.638346136816</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2030.511724209918</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V3" t="n">
-        <v>1795.359615978175</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1541.122259249973</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X3" t="n">
-        <v>1333.270759044441</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y3" t="n">
-        <v>1125.510460279487</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1114.158575936117</v>
+        <v>519.6668354622486</v>
       </c>
       <c r="C4" t="n">
-        <v>945.22239300821</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D4" t="n">
-        <v>795.1057535958743</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E4" t="n">
-        <v>647.1926600134811</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>500.3027125155708</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>331.850895327537</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>178.9745904511027</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>59.12502507321256</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>170.9118200106002</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L4" t="n">
-        <v>378.3345598808719</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M4" t="n">
-        <v>607.421879354438</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N4" t="n">
-        <v>836.4966308281116</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O4" t="n">
-        <v>1032.067945122486</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P4" t="n">
-        <v>1175.892308261007</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q4" t="n">
-        <v>1192.033762138603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1192.033762138603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>1192.033762138603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>1192.033762138603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U4" t="n">
-        <v>1192.033762138603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.033762138603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W4" t="n">
-        <v>1192.033762138603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X4" t="n">
-        <v>1192.033762138603</v>
+        <v>922.1078794360185</v>
       </c>
       <c r="Y4" t="n">
-        <v>1192.033762138603</v>
+        <v>701.3153002924884</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1635.678923372671</v>
+        <v>1715.225849240579</v>
       </c>
       <c r="C5" t="n">
-        <v>1635.678923372671</v>
+        <v>1346.263332300167</v>
       </c>
       <c r="D5" t="n">
-        <v>1277.41322476592</v>
+        <v>987.9976336934169</v>
       </c>
       <c r="E5" t="n">
-        <v>1277.41322476592</v>
+        <v>987.9976336934169</v>
       </c>
       <c r="F5" t="n">
-        <v>866.4273199763129</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G5" t="n">
-        <v>449.6851461364153</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
-        <v>135.001488057261</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>102.1944669454625</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>531.5190108707716</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>724.3018526312965</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>970.4793468108686</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N5" t="n">
-        <v>1225.254058595745</v>
+        <v>2289.241019842399</v>
       </c>
       <c r="O5" t="n">
-        <v>1829.487512576616</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
-        <v>2307.512403206731</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
-        <v>2589.267428472798</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R5" t="n">
-        <v>2610.545197313008</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2610.545197313008</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2610.545197313008</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2356.881142692053</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V5" t="n">
-        <v>2025.818255348483</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W5" t="n">
-        <v>2025.818255348483</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X5" t="n">
-        <v>2025.818255348483</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1635.678923372671</v>
+        <v>1715.225849240579</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>957.2951232594183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C6" t="n">
-        <v>782.8420939782914</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D6" t="n">
-        <v>633.9076843170401</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E6" t="n">
-        <v>474.6702293115846</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F6" t="n">
-        <v>328.1356713384696</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>190.8791902391183</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H6" t="n">
-        <v>91.74911687612239</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>63.16292468990572</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>421.857081920372</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>965.5700382119222</v>
+        <v>528.1332110007638</v>
       </c>
       <c r="M6" t="n">
-        <v>1583.025443446131</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N6" t="n">
-        <v>1828.818830742906</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O6" t="n">
-        <v>2421.375661368781</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
-        <v>2564.673550048093</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
-        <v>2610.545197313008</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2600.914344032896</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S6" t="n">
-        <v>2454.882298548785</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T6" t="n">
-        <v>2258.638346136815</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U6" t="n">
-        <v>2030.511724209917</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V6" t="n">
-        <v>1795.359615978175</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W6" t="n">
-        <v>1541.122259249973</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X6" t="n">
-        <v>1333.27075904444</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y6" t="n">
-        <v>1125.510460279486</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.6861842785488</v>
+        <v>239.5116902268824</v>
       </c>
       <c r="C7" t="n">
-        <v>319.6861842785488</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="D7" t="n">
-        <v>319.6861842785488</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="E7" t="n">
-        <v>319.6861842785488</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="F7" t="n">
-        <v>319.6861842785488</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G7" t="n">
-        <v>205.0872088226945</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>52.21090394626017</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>52.21090394626017</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K7" t="n">
-        <v>170.9118200106002</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L7" t="n">
-        <v>378.3345598808719</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M7" t="n">
-        <v>607.421879354438</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N7" t="n">
-        <v>836.4966308281116</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O7" t="n">
-        <v>1032.067945122486</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P7" t="n">
-        <v>1175.892308261007</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q7" t="n">
-        <v>1192.033762138603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1068.526415229087</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>863.7878425213962</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>863.7878425213962</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U7" t="n">
-        <v>863.7878425213962</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V7" t="n">
-        <v>609.1033543155094</v>
+        <v>421.1601550571221</v>
       </c>
       <c r="W7" t="n">
-        <v>319.6861842785488</v>
+        <v>421.1601550571221</v>
       </c>
       <c r="X7" t="n">
-        <v>319.6861842785488</v>
+        <v>421.1601550571221</v>
       </c>
       <c r="Y7" t="n">
-        <v>319.6861842785488</v>
+        <v>421.1601550571221</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1281.699312737728</v>
+        <v>1990.879183888166</v>
       </c>
       <c r="C8" t="n">
-        <v>1281.699312737728</v>
+        <v>1990.879183888166</v>
       </c>
       <c r="D8" t="n">
-        <v>1281.699312737728</v>
+        <v>1632.613485281416</v>
       </c>
       <c r="E8" t="n">
-        <v>895.9110601394834</v>
+        <v>1246.825232683171</v>
       </c>
       <c r="F8" t="n">
-        <v>484.9251553498759</v>
+        <v>835.8393278935639</v>
       </c>
       <c r="G8" t="n">
-        <v>69.26033945750743</v>
+        <v>420.1948087731342</v>
       </c>
       <c r="H8" t="n">
-        <v>52.21090394626017</v>
+        <v>116.7525070897319</v>
       </c>
       <c r="I8" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>191.8142318034902</v>
+        <v>193.9926295475603</v>
       </c>
       <c r="K8" t="n">
-        <v>451.781950077969</v>
+        <v>456.4907949980429</v>
       </c>
       <c r="L8" t="n">
-        <v>811.1966543735311</v>
+        <v>819.0447427728841</v>
       </c>
       <c r="M8" t="n">
-        <v>1242.784202145964</v>
+        <v>1254.125303783476</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.969096031077</v>
+        <v>1700.859731512775</v>
       </c>
       <c r="O8" t="n">
-        <v>2091.12076283533</v>
+        <v>2109.363122473163</v>
       </c>
       <c r="P8" t="n">
-        <v>2402.40733607871</v>
+        <v>2423.510314738926</v>
       </c>
       <c r="Q8" t="n">
-        <v>2587.997842140388</v>
+        <v>2611.24902655301</v>
       </c>
       <c r="R8" t="n">
-        <v>2610.545197313008</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2486.7559945999</v>
+        <v>2511.719286958092</v>
       </c>
       <c r="T8" t="n">
-        <v>2278.185165968806</v>
+        <v>2511.719286958092</v>
       </c>
       <c r="U8" t="n">
-        <v>2024.607299983654</v>
+        <v>2511.719286958092</v>
       </c>
       <c r="V8" t="n">
-        <v>2024.607299983654</v>
+        <v>2511.719286958092</v>
       </c>
       <c r="W8" t="n">
-        <v>1671.838644713539</v>
+        <v>2511.719286958092</v>
       </c>
       <c r="X8" t="n">
-        <v>1671.838644713539</v>
+        <v>2511.719286958092</v>
       </c>
       <c r="Y8" t="n">
-        <v>1281.699312737728</v>
+        <v>2377.479023952288</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3048791507007</v>
+        <v>931.3052542689253</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8518498695737</v>
+        <v>756.8522249877983</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9174402083224</v>
+        <v>607.917815326547</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679985202867</v>
+        <v>448.6803603210915</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1454272297519</v>
+        <v>302.1458023479764</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4653834510997</v>
+        <v>165.4766182997064</v>
       </c>
       <c r="H9" t="n">
-        <v>71.90248105380391</v>
+        <v>72.01859803531259</v>
       </c>
       <c r="I9" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>116.5398426824938</v>
+        <v>118.0354471182384</v>
       </c>
       <c r="K9" t="n">
-        <v>304.6430698702526</v>
+        <v>307.8573858054793</v>
       </c>
       <c r="L9" t="n">
-        <v>603.893613359383</v>
+        <v>960.0312651081883</v>
       </c>
       <c r="M9" t="n">
-        <v>972.4617510471951</v>
+        <v>1453.962701017449</v>
       </c>
       <c r="N9" t="n">
-        <v>1365.193435546629</v>
+        <v>1849.462614139742</v>
       </c>
       <c r="O9" t="n">
-        <v>1702.246405302502</v>
+        <v>2189.047972268172</v>
       </c>
       <c r="P9" t="n">
-        <v>2235.890054818892</v>
+        <v>2442.262094296974</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.855659087801</v>
+        <v>2561.609832686965</v>
       </c>
       <c r="R9" t="n">
-        <v>2561.855659087801</v>
+        <v>2561.609832686965</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.53068401229</v>
+        <v>2426.486572340265</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610178520157</v>
+        <v>2232.609839182435</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.5214801012</v>
+        <v>2004.521855219424</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.369371869457</v>
+        <v>1769.369746987682</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.132015141255</v>
+        <v>1515.13239025948</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.280514935723</v>
+        <v>1307.280890053947</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.520216170769</v>
+        <v>1099.520591288993</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.3275433585959</v>
+        <v>834.5162300291527</v>
       </c>
       <c r="C10" t="n">
-        <v>202.3275433585959</v>
+        <v>665.5800471012458</v>
       </c>
       <c r="D10" t="n">
-        <v>52.21090394626017</v>
+        <v>515.46340768891</v>
       </c>
       <c r="E10" t="n">
-        <v>52.21090394626017</v>
+        <v>367.5503141065169</v>
       </c>
       <c r="F10" t="n">
-        <v>52.21090394626017</v>
+        <v>220.6603666086065</v>
       </c>
       <c r="G10" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>52.21090394626017</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>78.92133683067999</v>
+        <v>80.04222654763828</v>
       </c>
       <c r="K10" t="n">
-        <v>252.6516198941312</v>
+        <v>254.8092295930465</v>
       </c>
       <c r="L10" t="n">
-        <v>530.4930035753157</v>
+        <v>533.9772579209388</v>
       </c>
       <c r="M10" t="n">
-        <v>833.8269095250693</v>
+        <v>838.7099246413406</v>
       </c>
       <c r="N10" t="n">
-        <v>1135.382829597807</v>
+        <v>1141.631346079985</v>
       </c>
       <c r="O10" t="n">
-        <v>1397.902234510506</v>
+        <v>1405.412012516899</v>
       </c>
       <c r="P10" t="n">
-        <v>1599.012254813047</v>
+        <v>1607.601259943067</v>
       </c>
       <c r="Q10" t="n">
-        <v>1654.815328364258</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="R10" t="n">
-        <v>1654.815328364258</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="S10" t="n">
-        <v>1458.498758564298</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="T10" t="n">
-        <v>1458.498758564298</v>
+        <v>1664.151534413982</v>
       </c>
       <c r="U10" t="n">
-        <v>1169.381398151203</v>
+        <v>1606.607439170018</v>
       </c>
       <c r="V10" t="n">
-        <v>914.6969099453166</v>
+        <v>1351.922950964131</v>
       </c>
       <c r="W10" t="n">
-        <v>625.2797399083561</v>
+        <v>1062.50578092717</v>
       </c>
       <c r="X10" t="n">
-        <v>397.2901890103387</v>
+        <v>834.5162300291527</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3275433585959</v>
+        <v>834.5162300291527</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1232.150970528558</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="C11" t="n">
-        <v>1232.150970528558</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528558</v>
+        <v>1543.269647530234</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1157.48139493199</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>746.4954901423821</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5038,31 +5038,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>2288.135186201106</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>315.7463345171083</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>168.8563870191979</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>168.8563870191979</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796256</v>
+        <v>2250.313212877738</v>
       </c>
       <c r="C14" t="n">
-        <v>552.807938939214</v>
+        <v>1881.350695937326</v>
       </c>
       <c r="D14" t="n">
-        <v>552.807938939214</v>
+        <v>1523.084997330576</v>
       </c>
       <c r="E14" t="n">
-        <v>519.4949199823222</v>
+        <v>1137.296744732331</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>726.310839942724</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>375.7523079721357</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>86.75626160882973</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>86.75626160882973</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>345.3879756212491</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>783.7483898162949</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1364.475007962547</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2042.314702134457</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2735.736359596482</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3377.179506367217</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3890.135390965393</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4227.171151129972</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4337.813080441487</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4337.813080441487</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>4337.813080441487</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>4084.349685792437</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3753.286798448866</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>3400.518143178751</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>3027.052384917672</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943747</v>
+        <v>2636.91305294186</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5593518405773</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.1063225594503</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.171912898199</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9344578927435</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3998999196284</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.4854506960516</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>90.31657992277374</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>86.75626160882973</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>221.9776917130164</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>531.2474782384999</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>993.4214136393575</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1552.113465088214</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.113465088214</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2067.695982183456</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2462.163340466744</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.753297325112</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.753297325112</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2433.648905323042</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.8142831472</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.775952791076</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.623844559334</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.386487831132</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.534987625599</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.774688860645</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>371.1806157135657</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>371.1806157135657</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>371.1806157135657</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>254.0829643539865</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>254.0829643539865</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>86.75626160882973</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>86.75626160882973</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>86.75626160882973</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>157.9423653405841</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>404.7598379924287</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>776.127661308088</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1178.072084477925</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1575.893784076596</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1927.330217449416</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2204.524116490923</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2313.003723946571</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2240.085613714048</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2054.954717251766</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1834.795219309096</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1545.7128688282</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1291.028380622314</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1001.611210585353</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>773.6216596873355</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>552.8290805438054</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3118.73869457197</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C22" t="n">
-        <v>2949.802511644064</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="D22" t="n">
-        <v>2799.685872231728</v>
+        <v>728.2402605030711</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649335</v>
+        <v>580.327166920678</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>433.4372194227676</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>266.2411201376476</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>124.5292889798456</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>4288.376853076439</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>4038.586459480718</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>3749.169289443757</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>3521.17973854574</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>3300.38715940221</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4517.069482196493</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7639,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>9.814523410893599</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.30669068008952</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>44.22372407479045</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>48.10560617263482</v>
       </c>
       <c r="N3" t="n">
-        <v>77.53402125655518</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>306.7410319652312</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>30.21968338400228</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>8.862918322875885</v>
       </c>
       <c r="M6" t="n">
-        <v>395.9967898964924</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,10 +8537,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>354.1538546468203</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>123.9055022422945</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>285.3151438544104</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>19.6244327836344</v>
+        <v>18.95691945092473</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>73.92287984060317</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>43.43418703317646</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>348.950481304939</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>63.03863829829692</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.572930271396899</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>90.27093048952871</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.2840292066601</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>30.50728780058586</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.4442845014675</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.15416253077997</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>30.48882721876564</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>50.86033664601051</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4.845153664064156</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823058</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,10 +25602,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>45.37941682720901</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1007397.343345158</v>
+        <v>1018154.464614652</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1007397.343345158</v>
+        <v>1018154.464614652</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975223.4357895686</v>
+        <v>975051.7101797257</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806832.6782667747</v>
+        <v>915988.0379163089</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208685</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719626</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719627</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="E2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165589</v>
+        <v>445563.1164110113</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
@@ -26337,25 +26337,25 @@
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217539</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>872608.0838769127</v>
+        <v>792647.4137109849</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>227217.6490143839</v>
+        <v>304387.9199455887</v>
       </c>
       <c r="E3" t="n">
-        <v>170573.7377101007</v>
+        <v>164729.212892595</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>235730.840797304</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.03345982</v>
+        <v>79936.20489673776</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>170758.3719014412</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44548.99195427504</v>
+        <v>43022.56888020196</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>61979.22182100565</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545136</v>
+        <v>21238.65833413742</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170811.0257453591</v>
+        <v>183955.1029744945</v>
       </c>
       <c r="C4" t="n">
-        <v>170811.0257453591</v>
+        <v>183955.1029744945</v>
       </c>
       <c r="D4" t="n">
-        <v>127848.748779775</v>
+        <v>126396.7504709558</v>
       </c>
       <c r="E4" t="n">
         <v>6110.739312017629</v>
       </c>
       <c r="F4" t="n">
-        <v>6110.739312017629</v>
+        <v>6241.703467216155</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
@@ -26438,28 +26438,28 @@
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88101.06990095487</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="C5" t="n">
-        <v>88101.06990095487</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>93884.89028281874</v>
+        <v>94366.2658105982</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>94193.53639974713</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-659421.1618512638</v>
+        <v>-591121.5768509924</v>
       </c>
       <c r="C6" t="n">
-        <v>213186.9220256489</v>
+        <v>201525.8368599926</v>
       </c>
       <c r="D6" t="n">
-        <v>23147.72959498537</v>
+        <v>-53051.91855517981</v>
       </c>
       <c r="E6" t="n">
-        <v>141155.8462330472</v>
+        <v>143524.1817524921</v>
       </c>
       <c r="F6" t="n">
-        <v>311729.583943148</v>
+        <v>108243.3009093113</v>
       </c>
       <c r="G6" t="n">
-        <v>46856.2510063316</v>
+        <v>276415.7003150568</v>
       </c>
       <c r="H6" t="n">
-        <v>356699.2844661515</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="I6" t="n">
-        <v>356699.2844661515</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="J6" t="n">
-        <v>185940.9125647105</v>
+        <v>183990.9128115138</v>
       </c>
       <c r="K6" t="n">
-        <v>356699.2844661514</v>
+        <v>356351.9052117945</v>
       </c>
       <c r="L6" t="n">
-        <v>356699.2844661513</v>
+        <v>356351.9052117947</v>
       </c>
       <c r="M6" t="n">
-        <v>312150.2925118765</v>
+        <v>313329.3363315926</v>
       </c>
       <c r="N6" t="n">
-        <v>356699.2844661514</v>
+        <v>294372.6833907889</v>
       </c>
       <c r="O6" t="n">
-        <v>274563.4538707001</v>
+        <v>335113.2468776571</v>
       </c>
       <c r="P6" t="n">
-        <v>356699.2844661512</v>
+        <v>356351.9052117945</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678.5863716420708</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>678.5863716420708</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>943.8992331954596</v>
+        <v>948.8975669950659</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1296.274200781492</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>652.6362993282521</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
-        <v>652.6362993282521</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="D4" t="n">
-        <v>652.6362993282521</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1084.453270110372</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678.5863716420708</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>265.3128615533888</v>
+        <v>355.4214666570008</v>
       </c>
       <c r="E3" t="n">
-        <v>145.8774673978387</v>
+        <v>140.8791335982324</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>206.497500188194</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>71.7012995601815</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>652.6362993282521</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>178.7651560740405</v>
+        <v>172.6399611571322</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>253.051814708079</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973557</v>
+        <v>88.25501798927678</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.6362993282521</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>178.7651560740405</v>
+        <v>172.6399611571321</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>253.051814708079</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>88.25501798927667</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.6362993282521</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>178.7651560740405</v>
+        <v>172.6399611571322</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>253.051814708079</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>88.25501798927678</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.162045947111</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>51.88121594848627</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>146.8561019730044</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>211.1540934159377</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1274140747456</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.7355458414761</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.2722734404206</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6911869806141</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>222.7171370566131</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2522831560015</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.48721104172736</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>327.3861276444882</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>23.34255364129518</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.8561019730044</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.1540934159377</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>53.31431331485767</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>118.6510697241112</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>6.84497991568287</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>222.7171370566131</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2522831560015</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>136.6105112202665</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>283.7347231828967</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.18573806179097</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.3971597168112</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0404798209637</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>253.340078280308</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2888659871227</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.0938372604697</v>
+        <v>147.0137000398793</v>
       </c>
       <c r="I10" t="n">
-        <v>104.2632837238061</v>
+        <v>103.9922265400504</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>100.7601846987311</v>
+        <v>100.3549099614712</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.1963253168159</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6729232053001</v>
+        <v>220.6344114530736</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>229.257040878049</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.57163415686941</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.727985413636464</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>27.93798061740444</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>105.1706576592199</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>231.534352000628</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>347.0099745598596</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>430.4965581624366</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>479.010368762194</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>486.7612573186887</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>459.6348523618411</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>392.2877124626908</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>294.5917348368349</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>171.3618137393417</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>62.16396761324098</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>11.94175614819363</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.218238833090917</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.459600874852756</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>14.09667160713057</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>50.25380205085148</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>137.9002738824703</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>235.6935324976049</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>316.9190408315162</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>369.8295725449286</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>379.6178608679543</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>347.2761783251643</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>278.7197495146461</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.3167713233098</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>90.62328940533169</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>27.11144607456762</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.883215806972292</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.09602637334557611</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.223680342305373</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>10.8796306797696</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>36.79940520314706</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>86.5142002009899</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>142.1694070423879</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>181.9278938005644</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>191.8174558397414</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>187.256465472967</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>172.9616542014905</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>147.9985752184608</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>102.4665421179527</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>55.02111793674887</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>21.32541105635818</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>5.228452371668412</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06674620048938408</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.727985413636464</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93798061740444</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>105.1706576592199</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>231.534352000628</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>347.0099745598596</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>430.4965581624366</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>479.010368762194</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>486.7612573186887</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>459.6348523618411</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>392.2877124626908</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>294.5917348368349</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>171.3618137393417</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>62.16396761324098</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>11.94175614819363</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.218238833090917</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.459600874852756</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>14.09667160713057</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>50.25380205085148</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>137.9002738824703</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>235.6935324976049</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>316.9190408315162</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>369.8295725449286</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>379.6178608679543</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>347.2761783251643</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>278.7197495146461</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.3167713233098</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>90.62328940533169</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>27.11144607456762</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>5.883215806972292</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09602637334557611</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.223680342305373</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>10.8796306797696</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>36.79940520314706</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>86.5142002009899</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>142.1694070423879</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>181.9278938005644</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>191.8174558397414</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>187.256465472967</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>172.9616542014905</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>147.9985752184608</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.4665421179527</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>55.02111793674887</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>21.32541105635818</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>5.228452371668412</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06674620048938408</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.794569781690287</v>
+        <v>3.814663585909809</v>
       </c>
       <c r="H8" t="n">
-        <v>38.86113777673566</v>
+        <v>39.06692344919885</v>
       </c>
       <c r="I8" t="n">
-        <v>146.2901515086149</v>
+        <v>147.0648178957881</v>
       </c>
       <c r="J8" t="n">
-        <v>322.0593670087363</v>
+        <v>323.764803524613</v>
       </c>
       <c r="K8" t="n">
-        <v>482.6835058676862</v>
+        <v>485.2395131161753</v>
       </c>
       <c r="L8" t="n">
-        <v>598.8115708240905</v>
+        <v>601.9825238334628</v>
       </c>
       <c r="M8" t="n">
-        <v>666.2932511792251</v>
+        <v>669.8215473793863</v>
       </c>
       <c r="N8" t="n">
-        <v>677.0745725714527</v>
+        <v>680.6599602928527</v>
       </c>
       <c r="O8" t="n">
-        <v>639.3423193047698</v>
+        <v>642.727899260462</v>
       </c>
       <c r="P8" t="n">
-        <v>545.6638778192907</v>
+        <v>548.5533919833134</v>
       </c>
       <c r="Q8" t="n">
-        <v>409.7708475125073</v>
+        <v>411.9407523129182</v>
       </c>
       <c r="R8" t="n">
-        <v>238.3606440491027</v>
+        <v>239.6228614784073</v>
       </c>
       <c r="S8" t="n">
-        <v>86.4687589002675</v>
+        <v>86.92664646391988</v>
       </c>
       <c r="T8" t="n">
-        <v>16.61072921934924</v>
+        <v>16.6986898473202</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3035655825352229</v>
+        <v>0.3051730868727847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.030273822344951</v>
+        <v>2.041024955423349</v>
       </c>
       <c r="H9" t="n">
-        <v>19.60817086317361</v>
+        <v>19.71200417474656</v>
       </c>
       <c r="I9" t="n">
-        <v>69.90197151494678</v>
+        <v>70.27213114067234</v>
       </c>
       <c r="J9" t="n">
-        <v>191.8163526628622</v>
+        <v>192.8320989683087</v>
       </c>
       <c r="K9" t="n">
-        <v>327.8446987599739</v>
+        <v>329.580770981673</v>
       </c>
       <c r="L9" t="n">
-        <v>440.8276560315211</v>
+        <v>443.1620193782146</v>
       </c>
       <c r="M9" t="n">
-        <v>514.4250820915254</v>
+        <v>517.1491740123108</v>
       </c>
       <c r="N9" t="n">
-        <v>528.0403832948826</v>
+        <v>530.8365738230227</v>
       </c>
       <c r="O9" t="n">
-        <v>483.0537896523971</v>
+        <v>485.6117577054843</v>
       </c>
       <c r="P9" t="n">
-        <v>387.6932529704144</v>
+        <v>389.746247847464</v>
       </c>
       <c r="Q9" t="n">
-        <v>259.1626724803836</v>
+        <v>260.5350451870227</v>
       </c>
       <c r="R9" t="n">
-        <v>126.0550711803295</v>
+        <v>126.7225845130392</v>
       </c>
       <c r="S9" t="n">
-        <v>37.71144577908272</v>
+        <v>37.91114336060473</v>
       </c>
       <c r="T9" t="n">
-        <v>8.183428257609689</v>
+        <v>8.226762868570427</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1335706462069047</v>
+        <v>0.1342779575936414</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.702113371336075</v>
+        <v>1.711126760155037</v>
       </c>
       <c r="H10" t="n">
-        <v>15.13333524696984</v>
+        <v>15.21347246756025</v>
       </c>
       <c r="I10" t="n">
-        <v>51.18719120345214</v>
+        <v>51.45824838720785</v>
       </c>
       <c r="J10" t="n">
-        <v>120.3394153534605</v>
+        <v>120.9766619429611</v>
       </c>
       <c r="K10" t="n">
-        <v>197.7546262334093</v>
+        <v>198.801818134376</v>
       </c>
       <c r="L10" t="n">
-        <v>253.0578370439106</v>
+        <v>254.3978821415952</v>
       </c>
       <c r="M10" t="n">
-        <v>266.8140078358903</v>
+        <v>268.2268975032118</v>
       </c>
       <c r="N10" t="n">
-        <v>260.4697670881833</v>
+        <v>261.8490613971796</v>
       </c>
       <c r="O10" t="n">
-        <v>240.5859881593936</v>
+        <v>241.8599896990047</v>
       </c>
       <c r="P10" t="n">
-        <v>205.8628753841375</v>
+        <v>206.9530037918418</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.5287842125144</v>
+        <v>143.2835326162549</v>
       </c>
       <c r="R10" t="n">
-        <v>76.53320667843839</v>
+        <v>76.93848141569826</v>
       </c>
       <c r="S10" t="n">
-        <v>29.6631939350114</v>
+        <v>29.8202727201564</v>
       </c>
       <c r="T10" t="n">
-        <v>7.272666222981408</v>
+        <v>7.311177975207881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09284254752742235</v>
+        <v>0.09333418691754757</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.211152565955744</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>53.36871621609428</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>200.902959299009</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>442.2900600947867</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>662.8781482116934</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>822.3589585520617</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>915.0327929968772</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>929.838980224899</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>878.0205818971765</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>749.370252925144</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>562.7458516568537</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>327.3450623712178</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>118.7491390967166</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>22.81182035747128</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4168922052764594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.788212431869625</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>26.92826217095138</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>95.99766486919543</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>263.4249298022088</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>450.2351627374736</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>605.3967387706394</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>706.4694394259132</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>663.3866657527699</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>532.4262844681567</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>233.5069830338677</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>51.78982302178883</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.23845274073765</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1834350284124754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.33754364075351</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>20.78288800597213</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>70.29631239647831</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>165.2643354012732</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>271.5800702620896</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>347.5289881898447</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>366.4205908864798</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>357.7079282254897</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>330.4011684221418</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>282.7152781507699</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>195.7374043180053</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>105.1044622469715</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>40.73701053931344</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>9.987686465037724</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1275023804047371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.5850626460155</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>451.0655360860438</v>
+        <v>93.21164924381517</v>
       </c>
       <c r="L2" t="n">
-        <v>194.7301431924494</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>248.6641355349213</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>257.3481937220978</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>610.3368222028997</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>482.8534248789039</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>119.5927356424749</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.06264721580359</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K3" t="n">
-        <v>362.3173305358246</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>549.2050063551012</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>227.6955386229102</v>
+        <v>229.4160469348619</v>
       </c>
       <c r="N3" t="n">
-        <v>325.8101700411762</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O3" t="n">
-        <v>598.5422531574494</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>463.208110740253</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.33499723728823</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>119.8999152165051</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>209.5179190608805</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>231.401332801582</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>231.3886378521956</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>197.5467821155302</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>145.2771344833542</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.30449886625831</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>50.48844747394173</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>433.6611554801102</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>194.7301431924494</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>248.6641355349213</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>257.3481937220978</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>610.3368222028997</v>
+        <v>202.1075877445674</v>
       </c>
       <c r="P5" t="n">
-        <v>482.8534248789039</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>284.6010356222901</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
-        <v>21.49269579819199</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>11.06264721580359</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3173305358246</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>549.2050063551012</v>
+        <v>147.4786738942839</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6923285194026</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>248.276148784621</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>598.5422531574494</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>144.7453421003158</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.33499723728823</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>119.8999152165051</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>209.5179190608805</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>231.401332801582</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>231.3886378521956</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>197.5467821155302</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>145.2771344833542</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.30449886625831</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>141.01346248205</v>
+        <v>142.7188989979267</v>
       </c>
       <c r="K8" t="n">
-        <v>262.5936548227057</v>
+        <v>265.1496620711948</v>
       </c>
       <c r="L8" t="n">
-        <v>363.0451558541033</v>
+        <v>366.2161088634755</v>
       </c>
       <c r="M8" t="n">
-        <v>435.9470179519524</v>
+        <v>439.4753141521136</v>
       </c>
       <c r="N8" t="n">
-        <v>447.6615089748618</v>
+        <v>451.2468966962618</v>
       </c>
       <c r="O8" t="n">
-        <v>409.2441078830831</v>
+        <v>412.6296878387752</v>
       </c>
       <c r="P8" t="n">
-        <v>314.4308820640212</v>
+        <v>317.3203962280439</v>
       </c>
       <c r="Q8" t="n">
-        <v>187.4651576380578</v>
+        <v>189.6350624384687</v>
       </c>
       <c r="R8" t="n">
-        <v>22.77510623497056</v>
+        <v>24.03732366427516</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.97872599619555</v>
+        <v>65.99447230164196</v>
       </c>
       <c r="K9" t="n">
-        <v>190.0032597856149</v>
+        <v>191.739332007314</v>
       </c>
       <c r="L9" t="n">
-        <v>302.2732762516469</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="M9" t="n">
-        <v>372.2910481695071</v>
+        <v>498.920642332587</v>
       </c>
       <c r="N9" t="n">
-        <v>396.6986712115494</v>
+        <v>399.4948617396894</v>
       </c>
       <c r="O9" t="n">
-        <v>340.4575452079527</v>
+        <v>343.0155132610399</v>
       </c>
       <c r="P9" t="n">
-        <v>539.0339894104945</v>
+        <v>255.7718404331337</v>
       </c>
       <c r="Q9" t="n">
-        <v>329.2581861302112</v>
+        <v>120.5532711010011</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.98023523678769</v>
+        <v>27.61748182628831</v>
       </c>
       <c r="K10" t="n">
-        <v>175.4851344075265</v>
+        <v>176.5323263084932</v>
       </c>
       <c r="L10" t="n">
-        <v>280.6478623042267</v>
+        <v>281.9879074019113</v>
       </c>
       <c r="M10" t="n">
-        <v>306.3978847977309</v>
+        <v>307.8107744650524</v>
       </c>
       <c r="N10" t="n">
-        <v>304.6019394674119</v>
+        <v>305.9812337764082</v>
       </c>
       <c r="O10" t="n">
-        <v>265.1711160734333</v>
+        <v>266.4451176130444</v>
       </c>
       <c r="P10" t="n">
-        <v>203.141434649031</v>
+        <v>204.2315630567353</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.36674096082002</v>
+        <v>57.12148936456056</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>261.2441555681004</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>442.7882971667129</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>586.5925435820745</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>684.6865597696045</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>700.4259166283082</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>647.9223704754897</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>518.1372571698744</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>340.4401617824042</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>111.7595245570857</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>136.5873031355421</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>312.3937237631146</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>466.8423589907653</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>564.3354055038949</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>520.7904213083254</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>398.4518770538265</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>93.52520894784618</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>71.9051552846004</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>249.3105784362067</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>375.1190134501609</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>406.0044678483204</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>401.8401006047183</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>354.9862963361815</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>279.9938374156634</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>109.5753610663109</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36612,10 +36612,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>266.8689447991536</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1176374.091154866</v>
+        <v>1181383.594973452</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11442741.15847844</v>
+        <v>11674452.50128242</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>810371.6679063039</v>
+        <v>1042617.113969141</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11012415.03051473</v>
+        <v>10898903.40267538</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>214.8812694593386</v>
       </c>
       <c r="D2" t="n">
-        <v>302.8018256721967</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>412.7921045844192</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>313.7627826140735</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>113.6847135089832</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>136.000210119196</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.26192620614478</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>43.14680699389431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>16.75496347250757</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>146.7318319310225</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>194.7502586358329</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8530066175528</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13.73800658935205</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>129.2224443473098</v>
+        <v>20.57714808437957</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>160.2861684579447</v>
       </c>
       <c r="F5" t="n">
-        <v>79.48991809722324</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>412.3589146398653</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>309.3263760944106</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>96.98415817156796</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>141.9377058160354</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1101470778149</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>135.7684330653717</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>97.02344781789429</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>35.16676369336464</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>2.364454814889982</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>142.4266748128387</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>193.8160344583569</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8377581271696</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>115.5271321035616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>275.7983635495546</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>145.724250322981</v>
       </c>
       <c r="G8" t="n">
-        <v>411.4880739292253</v>
+        <v>411.4954031135562</v>
       </c>
       <c r="H8" t="n">
-        <v>300.4078786665683</v>
+        <v>300.4829386755974</v>
       </c>
       <c r="I8" t="n">
-        <v>63.41107167461783</v>
+        <v>63.69363005353608</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.0934231223255</v>
+        <v>122.2604369102666</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.4292432212198</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0410661557102</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>132.8978603757456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3024922077873</v>
+        <v>135.3064136671206</v>
       </c>
       <c r="H9" t="n">
-        <v>92.52344006174991</v>
+        <v>92.56131310320563</v>
       </c>
       <c r="I9" t="n">
-        <v>19.12450171074273</v>
+        <v>19.25951686761262</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.7720277432331</v>
+        <v>133.8448671304106</v>
       </c>
       <c r="T9" t="n">
-        <v>191.9379658262512</v>
+        <v>191.9537720592656</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8071041233812</v>
+        <v>225.8073621141268</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2798525983037</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.6484585557472</v>
       </c>
       <c r="U10" t="n">
-        <v>56.96865429152432</v>
+        <v>286.2258744942883</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>141.0651303606207</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>213.0175435007626</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9988458128503</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>129.3290918536845</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>101.3208278811443</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>11.37624141617697</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>347.0529466508824</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>286.1060858996728</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.92876070256</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.555304731341</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>85.30718206554508</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>3.524715130804566</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>119.893348082049</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.926275954084</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7579470525623</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>115.9266748459833</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6534357177052</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>72.18892913019803</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.2795874976588</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.9579029632438</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1915269760862</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>216.9143240752076</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.69211367164815</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>30.40549967255502</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695473</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T30" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U30" t="n">
         <v>225.7478006422472</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.8253826162023824</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>72.97607332171654</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>20.3842717819797</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2010.339374490333</v>
+        <v>2273.340699830776</v>
       </c>
       <c r="C2" t="n">
-        <v>2010.339374490333</v>
+        <v>2056.288912498111</v>
       </c>
       <c r="D2" t="n">
-        <v>1704.478944518417</v>
+        <v>1698.02321389136</v>
       </c>
       <c r="E2" t="n">
-        <v>1318.690691920173</v>
+        <v>1312.234961293116</v>
       </c>
       <c r="F2" t="n">
-        <v>907.7047871305651</v>
+        <v>901.2490565035087</v>
       </c>
       <c r="G2" t="n">
-        <v>490.6170053669925</v>
+        <v>484.287334701065</v>
       </c>
       <c r="H2" t="n">
-        <v>172.393890139502</v>
+        <v>167.3552310504857</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="J2" t="n">
-        <v>241.3408185533492</v>
+        <v>146.4553241389472</v>
       </c>
       <c r="K2" t="n">
-        <v>333.6203513047262</v>
+        <v>565.63863447381</v>
       </c>
       <c r="L2" t="n">
-        <v>472.9490071459794</v>
+        <v>1137.94922521027</v>
       </c>
       <c r="M2" t="n">
-        <v>1104.666818129291</v>
+        <v>1346.343177164874</v>
       </c>
       <c r="N2" t="n">
-        <v>1731.974486189138</v>
+        <v>1562.722969510105</v>
       </c>
       <c r="O2" t="n">
-        <v>2279.135690956215</v>
+        <v>2130.701189815851</v>
       </c>
       <c r="P2" t="n">
-        <v>2389.870016205742</v>
+        <v>2577.783077298723</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.045976980643</v>
+        <v>2626.109355100891</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980643</v>
+        <v>2626.109355100891</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.830939477471</v>
+        <v>2626.109355100891</v>
       </c>
       <c r="T2" t="n">
-        <v>2264.031077745182</v>
+        <v>2626.109355100891</v>
       </c>
       <c r="U2" t="n">
-        <v>2010.339374490333</v>
+        <v>2626.109355100891</v>
       </c>
       <c r="V2" t="n">
-        <v>2010.339374490333</v>
+        <v>2626.109355100891</v>
       </c>
       <c r="W2" t="n">
-        <v>2010.339374490333</v>
+        <v>2273.340699830776</v>
       </c>
       <c r="X2" t="n">
-        <v>2010.339374490333</v>
+        <v>2273.340699830776</v>
       </c>
       <c r="Y2" t="n">
-        <v>2010.339374490333</v>
+        <v>2273.340699830776</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662183</v>
+        <v>962.9027938908803</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850913</v>
+        <v>788.4497646097533</v>
       </c>
       <c r="D3" t="n">
-        <v>642.73516502384</v>
+        <v>639.5153549485019</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183844</v>
+        <v>480.2778999430464</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452695</v>
+        <v>333.7433419699314</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044913</v>
+        <v>196.3693923545821</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929602</v>
+        <v>96.10482042918329</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961264</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="J3" t="n">
-        <v>171.3601713965083</v>
+        <v>52.59686330187593</v>
       </c>
       <c r="K3" t="n">
-        <v>500.7885757023182</v>
+        <v>130.8793215466081</v>
       </c>
       <c r="L3" t="n">
-        <v>1005.150115568437</v>
+        <v>649.5942303176068</v>
       </c>
       <c r="M3" t="n">
-        <v>1232.27200203395</v>
+        <v>1299.556295705077</v>
       </c>
       <c r="N3" t="n">
-        <v>1430.928743686615</v>
+        <v>1908.456864943983</v>
       </c>
       <c r="O3" t="n">
-        <v>1980.364752439338</v>
+        <v>2473.62112746871</v>
       </c>
       <c r="P3" t="n">
-        <v>2404.332520920174</v>
+        <v>2594.934065275388</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.045976980642</v>
+        <v>2626.109355100891</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.934077382829</v>
+        <v>2609.185149573106</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.467288245464</v>
+        <v>2460.971177925608</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.477992405552</v>
+        <v>2264.25374496012</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916717</v>
+        <v>2036.119394841379</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.187096684975</v>
+        <v>1800.967286609637</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1546.729929881435</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1338.878429675902</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986286</v>
+        <v>1131.118130910948</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.6668354622486</v>
+        <v>680.2548248552428</v>
       </c>
       <c r="C4" t="n">
-        <v>350.7306525343417</v>
+        <v>511.3186419273359</v>
       </c>
       <c r="D4" t="n">
-        <v>200.614013122006</v>
+        <v>361.2020025150001</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>213.288908932607</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>66.39896143469666</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>66.39896143469666</v>
       </c>
       <c r="H4" t="n">
-        <v>52.70091953961285</v>
+        <v>66.39896143469666</v>
       </c>
       <c r="I4" t="n">
-        <v>52.70091953961285</v>
+        <v>66.39896143469666</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="K4" t="n">
-        <v>153.7488491352227</v>
+        <v>160.0090164901848</v>
       </c>
       <c r="L4" t="n">
-        <v>338.581844036041</v>
+        <v>353.0815862898671</v>
       </c>
       <c r="M4" t="n">
-        <v>543.851444755279</v>
+        <v>567.0386634663088</v>
       </c>
       <c r="N4" t="n">
-        <v>749.6748095913833</v>
+        <v>781.3429359869292</v>
       </c>
       <c r="O4" t="n">
-        <v>923.7697049799822</v>
+        <v>963.2713222968646</v>
       </c>
       <c r="P4" t="n">
-        <v>1049.217281578598</v>
+        <v>1095.421803656058</v>
       </c>
       <c r="Q4" t="n">
-        <v>1052.635600998958</v>
+        <v>1103.480866894042</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.635600998958</v>
+        <v>1103.480866894042</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.635600998958</v>
+        <v>1103.480866894042</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.635600998958</v>
+        <v>1103.480866894042</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.635600998958</v>
+        <v>1103.480866894042</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.635600998958</v>
+        <v>1103.480866894042</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.635600998958</v>
+        <v>1103.480866894042</v>
       </c>
       <c r="X4" t="n">
-        <v>922.1078794360185</v>
+        <v>1082.695868829013</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.3153002924884</v>
+        <v>861.9032896854825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1715.225849240579</v>
+        <v>1452.352149834846</v>
       </c>
       <c r="C5" t="n">
-        <v>1346.263332300167</v>
+        <v>1452.352149834846</v>
       </c>
       <c r="D5" t="n">
-        <v>987.9976336934169</v>
+        <v>1452.352149834846</v>
       </c>
       <c r="E5" t="n">
-        <v>987.9976336934169</v>
+        <v>1290.446929170256</v>
       </c>
       <c r="F5" t="n">
-        <v>907.7047871305651</v>
+        <v>879.461024380648</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>462.9368681787638</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>150.4859832349148</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>288.0471445332801</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>761.7828064235989</v>
       </c>
       <c r="L5" t="n">
-        <v>1030.215540799241</v>
+        <v>988.285810708555</v>
       </c>
       <c r="M5" t="n">
-        <v>1661.933351782553</v>
+        <v>1271.983482876296</v>
       </c>
       <c r="N5" t="n">
-        <v>2289.241019842399</v>
+        <v>1564.885488355329</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2096.407615184432</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2286.579104536679</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.045976980643</v>
+        <v>2591.409067310851</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.045976980643</v>
+        <v>2626.109355100891</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2482.737935084694</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2482.737935084694</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2229.09132187478</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.830939477471</v>
+        <v>2229.09132187478</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.830939477471</v>
+        <v>2229.09132187478</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.365181216391</v>
+        <v>2229.09132187478</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.225849240579</v>
+        <v>1838.951989898968</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.1226039662187</v>
+        <v>952.3469365751188</v>
       </c>
       <c r="C6" t="n">
-        <v>791.6695746850917</v>
+        <v>777.8939072939918</v>
       </c>
       <c r="D6" t="n">
-        <v>642.7351650238404</v>
+        <v>628.9594976327405</v>
       </c>
       <c r="E6" t="n">
-        <v>483.4977100183849</v>
+        <v>469.7220426272851</v>
       </c>
       <c r="F6" t="n">
-        <v>336.9631520452699</v>
+        <v>323.18748465417</v>
       </c>
       <c r="G6" t="n">
-        <v>199.5217544044918</v>
+        <v>186.0476532750067</v>
       </c>
       <c r="H6" t="n">
-        <v>98.60577654929637</v>
+        <v>88.04417063066897</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>199.1058585575867</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>576.2615436936436</v>
       </c>
       <c r="L6" t="n">
-        <v>528.1332110007638</v>
+        <v>777.6663606978859</v>
       </c>
       <c r="M6" t="n">
-        <v>1168.678560467868</v>
+        <v>1427.628426085356</v>
       </c>
       <c r="N6" t="n">
-        <v>1820.852439770578</v>
+        <v>2077.590491472827</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2307.425258529463</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2472.554855440125</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.045976980643</v>
+        <v>2595.709923599613</v>
       </c>
       <c r="R6" t="n">
-        <v>2613.934077382829</v>
+        <v>2593.321585402754</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.467288245464</v>
+        <v>2449.456257308978</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.477992405552</v>
+        <v>2253.682485128819</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.339204916718</v>
+        <v>2025.563537525618</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.187096684975</v>
+        <v>1790.411429293875</v>
       </c>
       <c r="W6" t="n">
-        <v>1549.949739956773</v>
+        <v>1536.174072565673</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.09823975124</v>
+        <v>1328.322572360141</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.337940986287</v>
+        <v>1120.562273595187</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239.5116902268824</v>
+        <v>371.5750094422605</v>
       </c>
       <c r="C7" t="n">
-        <v>70.57550729897547</v>
+        <v>202.6388265143536</v>
       </c>
       <c r="D7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="E7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="F7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="K7" t="n">
-        <v>153.7488491352227</v>
+        <v>182.359023815606</v>
       </c>
       <c r="L7" t="n">
-        <v>338.581844036041</v>
+        <v>404.0319081536245</v>
       </c>
       <c r="M7" t="n">
-        <v>543.851444755279</v>
+        <v>648.144006950742</v>
       </c>
       <c r="N7" t="n">
-        <v>749.6748095913833</v>
+        <v>891.8862820776859</v>
       </c>
       <c r="O7" t="n">
-        <v>923.7697049799822</v>
+        <v>1101.005428473353</v>
       </c>
       <c r="P7" t="n">
-        <v>1049.217281578598</v>
+        <v>1256.422302434846</v>
       </c>
       <c r="Q7" t="n">
-        <v>1052.635600998958</v>
+        <v>1280.589809919658</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>1280.589809919658</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>1280.589809919658</v>
       </c>
       <c r="T7" t="n">
-        <v>827.0064043113226</v>
+        <v>1280.589809919658</v>
       </c>
       <c r="U7" t="n">
-        <v>537.8542278890025</v>
+        <v>1280.589809919658</v>
       </c>
       <c r="V7" t="n">
-        <v>421.1601550571221</v>
+        <v>1280.589809919658</v>
       </c>
       <c r="W7" t="n">
-        <v>421.1601550571221</v>
+        <v>1002.005604314048</v>
       </c>
       <c r="X7" t="n">
-        <v>421.1601550571221</v>
+        <v>774.0160534160303</v>
       </c>
       <c r="Y7" t="n">
-        <v>421.1601550571221</v>
+        <v>553.2234742725002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.879183888166</v>
+        <v>983.2254418148166</v>
       </c>
       <c r="C8" t="n">
-        <v>1990.879183888166</v>
+        <v>983.2254418148166</v>
       </c>
       <c r="D8" t="n">
-        <v>1632.613485281416</v>
+        <v>983.2254418148166</v>
       </c>
       <c r="E8" t="n">
-        <v>1246.825232683171</v>
+        <v>983.2254418148166</v>
       </c>
       <c r="F8" t="n">
-        <v>835.8393278935639</v>
+        <v>836.029229367361</v>
       </c>
       <c r="G8" t="n">
-        <v>420.1948087731342</v>
+        <v>420.3773070304355</v>
       </c>
       <c r="H8" t="n">
-        <v>116.7525070897319</v>
+        <v>116.8591871560947</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="J8" t="n">
-        <v>193.9926295475603</v>
+        <v>193.198062304944</v>
       </c>
       <c r="K8" t="n">
-        <v>456.4907949980429</v>
+        <v>454.7732510214041</v>
       </c>
       <c r="L8" t="n">
-        <v>819.0447427728841</v>
+        <v>816.1821645425043</v>
       </c>
       <c r="M8" t="n">
-        <v>1254.125303783476</v>
+        <v>1249.988654321329</v>
       </c>
       <c r="N8" t="n">
-        <v>1700.859731512775</v>
+        <v>1695.428395014331</v>
       </c>
       <c r="O8" t="n">
-        <v>2109.363122473163</v>
+        <v>2102.709249719344</v>
       </c>
       <c r="P8" t="n">
-        <v>2423.510314738926</v>
+        <v>2415.813035575522</v>
       </c>
       <c r="Q8" t="n">
-        <v>2611.24902655301</v>
+        <v>2602.768192629734</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.045976980643</v>
+        <v>2626.109355100891</v>
       </c>
       <c r="S8" t="n">
-        <v>2511.719286958092</v>
+        <v>2502.61396428244</v>
       </c>
       <c r="T8" t="n">
-        <v>2511.719286958092</v>
+        <v>2294.099577190299</v>
       </c>
       <c r="U8" t="n">
-        <v>2511.719286958092</v>
+        <v>2040.522742689581</v>
       </c>
       <c r="V8" t="n">
-        <v>2511.719286958092</v>
+        <v>1709.45985534601</v>
       </c>
       <c r="W8" t="n">
-        <v>2511.719286958092</v>
+        <v>1356.691200075896</v>
       </c>
       <c r="X8" t="n">
-        <v>2511.719286958092</v>
+        <v>983.2254418148166</v>
       </c>
       <c r="Y8" t="n">
-        <v>2377.479023952288</v>
+        <v>983.2254418148166</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3052542689253</v>
+        <v>931.3051174451272</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8522249877983</v>
+        <v>756.8520881640002</v>
       </c>
       <c r="D9" t="n">
-        <v>607.917815326547</v>
+        <v>607.9176785027489</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6803603210915</v>
+        <v>448.6802234972934</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1458023479764</v>
+        <v>302.1456655241783</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4766182997064</v>
+        <v>165.4725204058746</v>
       </c>
       <c r="H9" t="n">
-        <v>72.01859803531259</v>
+        <v>71.97624454405076</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="J9" t="n">
-        <v>118.0354471182384</v>
+        <v>242.3200526766682</v>
       </c>
       <c r="K9" t="n">
-        <v>307.8573858054793</v>
+        <v>530.7508632309871</v>
       </c>
       <c r="L9" t="n">
-        <v>960.0312651081883</v>
+        <v>831.4694855304862</v>
       </c>
       <c r="M9" t="n">
-        <v>1453.962701017449</v>
+        <v>1201.750801945194</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.462614139742</v>
+        <v>1851.712867332665</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.047972268172</v>
+        <v>2190.374540678601</v>
       </c>
       <c r="P9" t="n">
-        <v>2442.262094296974</v>
+        <v>2442.847324235964</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.609832686965</v>
+        <v>2561.699497490377</v>
       </c>
       <c r="R9" t="n">
-        <v>2561.609832686965</v>
+        <v>2561.699497490377</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.486572340265</v>
+        <v>2426.502662005114</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.609839182435</v>
+        <v>2232.60996295535</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.521855219424</v>
+        <v>2004.521718395626</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.369746987682</v>
+        <v>1769.369610163883</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.13239025948</v>
+        <v>1515.132253435682</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.280890053947</v>
+        <v>1307.280753230149</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.520591288993</v>
+        <v>1099.520454465195</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>834.5162300291527</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="C10" t="n">
-        <v>665.5800471012458</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="D10" t="n">
-        <v>515.46340768891</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="E10" t="n">
-        <v>367.5503141065169</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="F10" t="n">
-        <v>220.6603666086065</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961285</v>
+        <v>52.52218710201782</v>
       </c>
       <c r="J10" t="n">
-        <v>80.04222654763828</v>
+        <v>79.63338373915447</v>
       </c>
       <c r="K10" t="n">
-        <v>254.8092295930465</v>
+        <v>254.0222447580797</v>
       </c>
       <c r="L10" t="n">
-        <v>533.9772579209388</v>
+        <v>532.7063814818167</v>
       </c>
       <c r="M10" t="n">
-        <v>838.7099246413406</v>
+        <v>836.9288523522462</v>
       </c>
       <c r="N10" t="n">
-        <v>1141.631346079985</v>
+        <v>1139.352209257886</v>
       </c>
       <c r="O10" t="n">
-        <v>1405.412012516899</v>
+        <v>1402.672832484491</v>
       </c>
       <c r="P10" t="n">
-        <v>1607.601259943067</v>
+        <v>1604.468433469318</v>
       </c>
       <c r="Q10" t="n">
-        <v>1664.151534413982</v>
+        <v>1660.746167548533</v>
       </c>
       <c r="R10" t="n">
-        <v>1664.151534413982</v>
+        <v>1660.746167548533</v>
       </c>
       <c r="S10" t="n">
-        <v>1664.151534413982</v>
+        <v>1660.746167548533</v>
       </c>
       <c r="T10" t="n">
-        <v>1664.151534413982</v>
+        <v>1437.868936684142</v>
       </c>
       <c r="U10" t="n">
-        <v>1606.607439170018</v>
+        <v>1148.751891740416</v>
       </c>
       <c r="V10" t="n">
-        <v>1351.922950964131</v>
+        <v>894.067403534529</v>
       </c>
       <c r="W10" t="n">
-        <v>1062.50578092717</v>
+        <v>604.6502334975685</v>
       </c>
       <c r="X10" t="n">
-        <v>834.5162300291527</v>
+        <v>376.6606825995511</v>
       </c>
       <c r="Y10" t="n">
-        <v>834.5162300291527</v>
+        <v>234.1706519322575</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1901.535346136984</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C11" t="n">
-        <v>1901.535346136984</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D11" t="n">
-        <v>1543.269647530234</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1157.48139493199</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>746.4954901423821</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5041,16 +5041,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2678.274518176918</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>2678.274518176918</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y11" t="n">
-        <v>2288.135186201106</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>463.6594280995014</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C13" t="n">
-        <v>463.6594280995014</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="D13" t="n">
-        <v>463.6594280995014</v>
+        <v>440.6904267128333</v>
       </c>
       <c r="E13" t="n">
-        <v>315.7463345171083</v>
+        <v>440.6904267128333</v>
       </c>
       <c r="F13" t="n">
-        <v>168.8563870191979</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G13" t="n">
-        <v>168.8563870191979</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>866.1004720732712</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.3078929297411</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2250.313212877738</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C14" t="n">
-        <v>1881.350695937326</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D14" t="n">
-        <v>1523.084997330576</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="E14" t="n">
-        <v>1137.296744732331</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F14" t="n">
-        <v>726.310839942724</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7523079721357</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>86.75626160882973</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>86.75626160882973</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>345.3879756212491</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>783.7483898162949</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1364.475007962547</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2042.314702134457</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2735.736359596482</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3377.179506367217</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3890.135390965393</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4227.171151129972</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4337.813080441487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4337.813080441487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>4337.813080441487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.349685792437</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>3753.286798448866</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>3400.518143178751</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>3027.052384917672</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>2636.91305294186</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5593518405773</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.1063225594503</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.171912898199</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9344578927435</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3998999196284</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.4854506960516</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>90.31657992277374</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>86.75626160882973</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>221.9776917130164</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>531.2474782384999</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>993.4214136393575</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1552.113465088214</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1552.113465088214</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2067.695982183456</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2462.163340466744</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2554.753297325112</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2554.753297325112</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2433.648905323042</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.8142831472</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.775952791076</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.623844559334</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.386487831132</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.534987625599</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.774688860645</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.1806157135657</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C16" t="n">
-        <v>371.1806157135657</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D16" t="n">
-        <v>371.1806157135657</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E16" t="n">
-        <v>254.0829643539865</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F16" t="n">
-        <v>254.0829643539865</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>86.75626160882973</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>86.75626160882973</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>86.75626160882973</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>157.9423653405841</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>404.7598379924287</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>776.127661308088</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1178.072084477925</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1575.893784076596</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1927.330217449416</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2204.524116490923</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2313.003723946571</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2240.085613714048</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2054.954717251766</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1834.795219309096</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1545.7128688282</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V16" t="n">
-        <v>1291.028380622314</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W16" t="n">
-        <v>1001.611210585353</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X16" t="n">
-        <v>773.6216596873355</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y16" t="n">
-        <v>552.8290805438054</v>
+        <v>709.9936982522395</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154069</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>878.3568999154069</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D22" t="n">
-        <v>728.2402605030711</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E22" t="n">
-        <v>580.327166920678</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F22" t="n">
-        <v>433.4372194227676</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G22" t="n">
-        <v>266.2411201376476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>124.5292889798456</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6132,10 +6132,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638189501</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111435</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075557</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332366</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014762</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355924</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068001</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694702</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,58 +6518,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273947</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803954</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516181</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.48107116738</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793935</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348545</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T30" t="n">
         <v>2244.643795685161</v>
@@ -6587,7 +6587,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782964</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038362</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179778</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279811</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853371</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580271</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.27452942083</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311989</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7557007032921</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>482.6390612909563</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>334.7259677085632</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7077,19 +7077,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7450,7 +7450,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>550.9217088032285</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>403.0086152208354</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>256.118667722925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7788,13 +7788,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>62.84102942630105</v>
       </c>
       <c r="K2" t="n">
-        <v>9.814523410893599</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>57.87699198005276</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>48.10560617263482</v>
+        <v>458.298004571257</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>397.0210184251642</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>30.21968338400228</v>
+        <v>270.9882121471908</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>8.862918322875885</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>399.570985275512</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>378.2159284122844</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>63.3227293965584</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>100.2381507632678</v>
       </c>
       <c r="L9" t="n">
-        <v>354.1538546468203</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>123.9055022422945</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>258.0523832504665</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.95691945092473</v>
+        <v>19.20039391724956</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>141.6654981199204</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>73.92287984060317</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>16.09195616924677</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>43.43418703317646</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>370.5541286560848</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>63.03863829829692</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.572930271396899</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.27093048952871</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.2840292066601</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>30.50728780058586</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.4442845014675</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.15416253077997</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.670329276887202</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>9.131767663158371</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>50.86033664601051</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182169</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856521</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409391881</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>72.4449747012147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>110.003342051665</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>145.1398665102892</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018154.464614652</v>
+        <v>1014230.821097825</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1018154.464614652</v>
+        <v>1001161.450625796</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975051.7101797257</v>
+        <v>975114.3468330507</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915988.0379163089</v>
+        <v>806832.6782667747</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>953886.7503208685</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208681</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208686</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>445563.1164110113</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="K2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="L2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>464109.2948217538</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.4137109849</v>
+        <v>821812.9457560091</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>98122.82793531017</v>
       </c>
       <c r="D3" t="n">
-        <v>304387.9199455887</v>
+        <v>183956.4358727564</v>
       </c>
       <c r="E3" t="n">
-        <v>164729.212892595</v>
+        <v>166860.9943734053</v>
       </c>
       <c r="F3" t="n">
-        <v>235730.840797304</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79936.20489673776</v>
+        <v>309843.03345982</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>171776.4390265043</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.634848664863966e-09</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-2.723101370405251e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>43022.56888020196</v>
+        <v>43579.32935993242</v>
       </c>
       <c r="N3" t="n">
-        <v>61979.22182100565</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21238.65833413742</v>
+        <v>82135.83059545136</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183955.1029744945</v>
+        <v>179160.8209251681</v>
       </c>
       <c r="C4" t="n">
-        <v>183955.1029744945</v>
+        <v>161705.7234268141</v>
       </c>
       <c r="D4" t="n">
-        <v>126396.7504709558</v>
+        <v>126926.3646314839</v>
       </c>
       <c r="E4" t="n">
         <v>6110.739312017629</v>
       </c>
       <c r="F4" t="n">
-        <v>6241.703467216155</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
@@ -26444,7 +26444,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695055</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747558</v>
+        <v>87158.9969225729</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747558</v>
+        <v>89508.0776944027</v>
       </c>
       <c r="D5" t="n">
-        <v>94366.2658105982</v>
+        <v>94190.68482369541</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>94193.53639974713</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26496,7 +26496,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-591121.5768509924</v>
+        <v>-616033.7459317872</v>
       </c>
       <c r="C6" t="n">
-        <v>201525.8368599926</v>
+        <v>122762.3886154358</v>
       </c>
       <c r="D6" t="n">
-        <v>-53051.91855517981</v>
+        <v>67025.53234402741</v>
       </c>
       <c r="E6" t="n">
-        <v>143524.1817524921</v>
+        <v>144520.9706399367</v>
       </c>
       <c r="F6" t="n">
-        <v>108243.3009093113</v>
+        <v>311381.9650133419</v>
       </c>
       <c r="G6" t="n">
-        <v>276415.7003150568</v>
+        <v>46821.51308089585</v>
       </c>
       <c r="H6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407157</v>
       </c>
       <c r="I6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407159</v>
       </c>
       <c r="J6" t="n">
-        <v>183990.9128115138</v>
+        <v>184888.1075142114</v>
       </c>
       <c r="K6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.546540711</v>
       </c>
       <c r="L6" t="n">
-        <v>356351.9052117947</v>
+        <v>356664.5465407202</v>
       </c>
       <c r="M6" t="n">
-        <v>313329.3363315926</v>
+        <v>313085.2171807834</v>
       </c>
       <c r="N6" t="n">
-        <v>294372.6833907889</v>
+        <v>356664.5465407157</v>
       </c>
       <c r="O6" t="n">
-        <v>335113.2468776571</v>
+        <v>274528.7159452644</v>
       </c>
       <c r="P6" t="n">
-        <v>356351.9052117945</v>
+        <v>356664.5465407158</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>624.519941515567</v>
       </c>
       <c r="C3" t="n">
-        <v>593.4761003380651</v>
+        <v>732.2759402233561</v>
       </c>
       <c r="D3" t="n">
-        <v>948.8975669950659</v>
+        <v>947.0744323927465</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1296.274200781492</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26764,7 +26764,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.97550034168</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>656.5273387752227</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451606</v>
+        <v>656.5273387752227</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451606</v>
+        <v>656.5273387752227</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>1084.453270110372</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>624.519941515567</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>107.7559987077891</v>
       </c>
       <c r="D3" t="n">
-        <v>355.4214666570008</v>
+        <v>214.7984921693904</v>
       </c>
       <c r="E3" t="n">
-        <v>140.8791335982324</v>
+        <v>142.7022682005518</v>
       </c>
       <c r="F3" t="n">
-        <v>206.497500188194</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71.7012995601815</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,10 +26986,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.366462912410498e-12</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-6.139089236967266e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451606</v>
+        <v>656.5273387752227</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>172.6399611571322</v>
+        <v>174.8741166270702</v>
       </c>
       <c r="F4" t="n">
-        <v>253.051814708079</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>88.25501798927678</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>656.5273387752223</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.6399611571321</v>
+        <v>174.8741166270703</v>
       </c>
       <c r="N4" t="n">
-        <v>253.051814708079</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>88.25501798927667</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>656.5273387752227</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.6399611571322</v>
+        <v>174.8741166270702</v>
       </c>
       <c r="N4" t="n">
-        <v>253.051814708079</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>88.25501798927678</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>150.3916223116689</v>
       </c>
       <c r="D2" t="n">
-        <v>51.88121594848627</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>151.809021677558</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.1055539099227</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1448022733792</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>166.8647958573651</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>152.2143773795343</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>121.5830656398239</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>126.656085955268</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>204.3902910224585</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>223.1337144690632</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>286.2576011655221</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>96.48721104172736</v>
+        <v>205.1325073046576</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>221.6442016143171</v>
       </c>
       <c r="F5" t="n">
-        <v>327.3861276444882</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>210.2092649276379</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>166.6704817613347</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>150.4867484166454</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>115.739510824654</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>117.9190176010266</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>201.0039262761825</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.3034633314786</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2470022148296</v>
       </c>
       <c r="V7" t="n">
-        <v>136.6105112202665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>10.72463478703645</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>261.1517954187304</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.3971597168112</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0404798209637</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.340078280308</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2831402180784</v>
       </c>
       <c r="H10" t="n">
-        <v>147.0137000398793</v>
+        <v>147.0429299684214</v>
       </c>
       <c r="I10" t="n">
-        <v>103.9922265400504</v>
+        <v>104.0910942329106</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>100.3549099614712</v>
+        <v>100.5027333015216</v>
       </c>
       <c r="S10" t="n">
-        <v>194.1963253168159</v>
+        <v>194.2536195632527</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6344114530736</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.257040878049</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>77.51952299147413</v>
       </c>
     </row>
     <row r="11">
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29438,7 +29438,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38583356919825</v>
+        <v>2.510632930715845</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055158</v>
+        <v>25.71201950169366</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651562</v>
+        <v>96.79117606142272</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>213.0868317033442</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>319.361923660546</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712531</v>
+        <v>396.1967062139411</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074825</v>
+        <v>440.845174595559</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>447.9785104099554</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822519</v>
+        <v>423.0134042051497</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426701</v>
+        <v>361.0321537281022</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457577</v>
+        <v>271.1201118968409</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>157.7085458340794</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810517</v>
+        <v>57.21104790868738</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.99029565420862</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2008506344572676</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.343307044014616</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>12.97351803035169</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182841</v>
+        <v>46.24982585752077</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>126.9130571715739</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070429</v>
+        <v>216.9146291205531</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>291.6684877804542</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842454</v>
+        <v>340.363368125984</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>349.371773697468</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>319.6069176169336</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671574</v>
+        <v>256.512728431177</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>171.4719658289534</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080804</v>
+        <v>83.40287068013556</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>24.95133917281532</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308317</v>
+        <v>5.414470058988734</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08837546342201423</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.126183501093645</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207016</v>
+        <v>10.01279512790533</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784131</v>
+        <v>33.86740928743436</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490379</v>
+        <v>79.62117352732072</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>130.8420467634253</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889954</v>
+        <v>167.4327725171407</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>176.5343828123429</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>172.3367897628122</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>159.1809188636728</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>136.2067754413623</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104783</v>
+        <v>94.30251116885061</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>50.63730542190153</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>19.62630701451379</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522795</v>
+        <v>4.811874959218302</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.06142819096874436</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>2.943822875269771</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>30.14842602135655</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>113.491731398838</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>249.853286759928</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>374.4653090700974</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>464.5573283891348</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>516.9095384472135</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>525.2736751915738</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>496.00103647561</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>423.3254092423874</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>317.8997525217887</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>184.9199136886649</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>67.08236377020998</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>12.88658463649343</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2355058300215816</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>1.575084097838917</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>15.21199641860217</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>54.22986915805043</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>148.8109059278426</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>254.34154048305</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>341.9935888750684</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>399.090387421729</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>409.6531224462717</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>374.752574804683</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>300.771980051363</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>201.0581034364203</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>97.79337933775315</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>29.25649629099916</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>6.348694236464755</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1036239538051919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>1.320497597124085</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>11.74042409079414</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>39.7109641026043</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>153.4178117385981</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>196.3219791215207</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>206.9940006110054</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>202.0721459308157</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>186.6463330916843</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>159.7081821103529</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>110.5736669737268</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>59.37437377614292</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>23.01267176078972</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>5.642126096802905</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.07202714166131378</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.814663585909809</v>
+        <v>3.807334401578878</v>
       </c>
       <c r="H8" t="n">
-        <v>39.06692344919885</v>
+        <v>38.99186344016969</v>
       </c>
       <c r="I8" t="n">
-        <v>147.0648178957881</v>
+        <v>146.7822595168698</v>
       </c>
       <c r="J8" t="n">
-        <v>323.764803524613</v>
+        <v>323.1427481660056</v>
       </c>
       <c r="K8" t="n">
-        <v>485.2395131161753</v>
+        <v>484.3072133848395</v>
       </c>
       <c r="L8" t="n">
-        <v>601.9825238334628</v>
+        <v>600.8259235771593</v>
       </c>
       <c r="M8" t="n">
-        <v>669.8215473793863</v>
+        <v>668.5346067412376</v>
       </c>
       <c r="N8" t="n">
-        <v>680.6599602928527</v>
+        <v>679.3521956097236</v>
       </c>
       <c r="O8" t="n">
-        <v>642.727899260462</v>
+        <v>641.4930141540236</v>
       </c>
       <c r="P8" t="n">
-        <v>548.5533919833134</v>
+        <v>547.499446115045</v>
       </c>
       <c r="Q8" t="n">
-        <v>411.9407523129182</v>
+        <v>411.1492828585013</v>
       </c>
       <c r="R8" t="n">
-        <v>239.6228614784073</v>
+        <v>239.1624696031794</v>
       </c>
       <c r="S8" t="n">
-        <v>86.92664646391988</v>
+        <v>86.75963267597876</v>
       </c>
       <c r="T8" t="n">
-        <v>16.6986898473202</v>
+        <v>16.66660634291155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3051730868727847</v>
+        <v>0.3045867521263101</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.041024955423349</v>
+        <v>2.037103496090058</v>
       </c>
       <c r="H9" t="n">
-        <v>19.71200417474656</v>
+        <v>19.67413113329083</v>
       </c>
       <c r="I9" t="n">
-        <v>70.27213114067234</v>
+        <v>70.13711598380246</v>
       </c>
       <c r="J9" t="n">
-        <v>192.8320989683087</v>
+        <v>192.4616070582279</v>
       </c>
       <c r="K9" t="n">
-        <v>329.580770981673</v>
+        <v>328.9475412962618</v>
       </c>
       <c r="L9" t="n">
-        <v>443.1620193782146</v>
+        <v>442.3105639207823</v>
       </c>
       <c r="M9" t="n">
-        <v>517.1491740123108</v>
+        <v>516.1555656540468</v>
       </c>
       <c r="N9" t="n">
-        <v>530.8365738230227</v>
+        <v>529.8166676080895</v>
       </c>
       <c r="O9" t="n">
-        <v>485.6117577054843</v>
+        <v>484.6787427736728</v>
       </c>
       <c r="P9" t="n">
-        <v>389.746247847464</v>
+        <v>388.9974211086359</v>
       </c>
       <c r="Q9" t="n">
-        <v>260.5350451870227</v>
+        <v>260.0344743430047</v>
       </c>
       <c r="R9" t="n">
-        <v>126.7225845130392</v>
+        <v>126.4791100467144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.91114336060473</v>
+        <v>37.83830397342716</v>
       </c>
       <c r="T9" t="n">
-        <v>8.226762868570427</v>
+        <v>8.210956635555979</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1342779575936414</v>
+        <v>0.1340199668480302</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.711126760155037</v>
+        <v>1.707839140380362</v>
       </c>
       <c r="H10" t="n">
-        <v>15.21347246756025</v>
+        <v>15.18424253901814</v>
       </c>
       <c r="I10" t="n">
-        <v>51.45824838720785</v>
+        <v>51.35938069434764</v>
       </c>
       <c r="J10" t="n">
-        <v>120.9766619429611</v>
+        <v>120.7442272248916</v>
       </c>
       <c r="K10" t="n">
-        <v>198.801818134376</v>
+        <v>198.4198564914639</v>
       </c>
       <c r="L10" t="n">
-        <v>254.3978821415952</v>
+        <v>253.9091027434586</v>
       </c>
       <c r="M10" t="n">
-        <v>268.2268975032118</v>
+        <v>267.7115481598053</v>
       </c>
       <c r="N10" t="n">
-        <v>261.8490613971796</v>
+        <v>261.3459659092969</v>
       </c>
       <c r="O10" t="n">
-        <v>241.8599896990047</v>
+        <v>241.3952995875808</v>
       </c>
       <c r="P10" t="n">
-        <v>206.9530037918418</v>
+        <v>206.5553811238212</v>
       </c>
       <c r="Q10" t="n">
-        <v>143.2835326162549</v>
+        <v>143.0082392913047</v>
       </c>
       <c r="R10" t="n">
-        <v>76.93848141569826</v>
+        <v>76.79065807564791</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8202727201564</v>
+        <v>29.76297847371958</v>
       </c>
       <c r="T10" t="n">
-        <v>7.311177975207881</v>
+        <v>7.297130872534274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09333418691754757</v>
+        <v>0.09315486220256533</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.211152565955744</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>53.36871621609428</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>200.902959299009</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>442.2900600947867</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>662.8781482116934</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>822.3589585520617</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>915.0327929968772</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>929.838980224899</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>878.0205818971765</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>749.370252925144</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>562.7458516568537</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>327.3450623712178</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>118.7491390967166</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>22.81182035747128</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4168922052764594</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.788212431869625</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>26.92826217095138</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>95.99766486919543</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>263.4249298022088</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>450.2351627374736</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>605.3967387706394</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>706.4694394259132</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>663.3866657527699</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>532.4262844681567</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.5069830338677</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>51.78982302178883</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.23845274073765</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1834350284124754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.33754364075351</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>20.78288800597213</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>70.29631239647831</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>165.2643354012732</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>271.5800702620896</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>347.5289881898447</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>366.4205908864798</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>357.7079282254897</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>330.4011684221418</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>282.7152781507699</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>195.7374043180053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>105.1044622469715</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>40.73701053931344</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>9.987686465037724</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1275023804047371</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348457</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135365</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067241</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663304</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817607</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.84640711626</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175718</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.271511415947</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460069</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236542</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669249</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043741</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292906</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651539</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078765</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659463</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521113</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007754</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420767</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422607</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473102</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862155</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071819</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557871</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742463</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937739</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189914</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.9324596612158</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869308</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796269</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355191</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588169</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392062</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106805</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920073</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417328</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670483</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532785</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099327</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467228</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.5453525391276</v>
+        <v>94.88195660295892</v>
       </c>
       <c r="K2" t="n">
-        <v>93.21164924381517</v>
+        <v>423.4174851867302</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012659</v>
+        <v>578.0915057944043</v>
       </c>
       <c r="M2" t="n">
-        <v>638.0987989730422</v>
+        <v>210.4989413682863</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>218.5654468133645</v>
       </c>
       <c r="O2" t="n">
-        <v>552.6880856233105</v>
+        <v>573.7153740462084</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>451.5978661443153</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.6524856312129</v>
+        <v>48.81442202239143</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584805</v>
+        <v>0.07543050490718883</v>
       </c>
       <c r="K3" t="n">
-        <v>332.7559639452625</v>
+        <v>79.07319014619412</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>523.9544533040391</v>
       </c>
       <c r="M3" t="n">
-        <v>229.4160469348619</v>
+        <v>656.5273387752227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>615.051080039299</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>570.8729924492187</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>122.5383210168467</v>
       </c>
       <c r="Q3" t="n">
-        <v>233.0438950105733</v>
+        <v>31.49019174293193</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>108.5725549375425</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>195.0227977774568</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>216.1182597741835</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>216.4689621420408</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>183.7660467777124</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>133.4853347062558</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353443</v>
+        <v>8.140467917156229</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>237.9039974053154</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>478.5208705962816</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>228.7909134191476</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>286.5633052199408</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>295.8606115949829</v>
       </c>
       <c r="O5" t="n">
-        <v>202.1075877445674</v>
+        <v>536.891037201114</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>192.0924134871179</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>307.9090533072439</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>35.05079574751522</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>148.0643146015848</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>380.9653385212696</v>
       </c>
       <c r="L6" t="n">
-        <v>147.4786738942839</v>
+        <v>203.4392090951942</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>656.5273387752227</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>656.5273387752227</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>232.1563303602385</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>166.7975726370328</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>124.3990587469572</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>131.1483199127153</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>223.9120043818369</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>246.5778775728459</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>246.2043183100443</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>211.231461005724</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>156.9867413752463</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>24.41162372203237</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>142.7188989979267</v>
+        <v>142.0968436393193</v>
       </c>
       <c r="K8" t="n">
-        <v>265.1496620711948</v>
+        <v>264.217362339859</v>
       </c>
       <c r="L8" t="n">
-        <v>366.2161088634755</v>
+        <v>365.0595086071721</v>
       </c>
       <c r="M8" t="n">
-        <v>439.4753141521136</v>
+        <v>438.1883735139648</v>
       </c>
       <c r="N8" t="n">
-        <v>451.2468966962618</v>
+        <v>449.9391320131327</v>
       </c>
       <c r="O8" t="n">
-        <v>412.6296878387752</v>
+        <v>411.3948027323369</v>
       </c>
       <c r="P8" t="n">
-        <v>317.3203962280439</v>
+        <v>316.2664503597754</v>
       </c>
       <c r="Q8" t="n">
-        <v>189.6350624384687</v>
+        <v>188.8435929840518</v>
       </c>
       <c r="R8" t="n">
-        <v>24.03732366427516</v>
+        <v>23.57693178904725</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>65.99447230164196</v>
+        <v>191.71501573197</v>
       </c>
       <c r="K9" t="n">
-        <v>191.739332007314</v>
+        <v>291.3442530851706</v>
       </c>
       <c r="L9" t="n">
-        <v>658.7614942451606</v>
+        <v>303.7561841409081</v>
       </c>
       <c r="M9" t="n">
-        <v>498.920642332587</v>
+        <v>374.0215317320284</v>
       </c>
       <c r="N9" t="n">
-        <v>399.4948617396894</v>
+        <v>656.5273387752227</v>
       </c>
       <c r="O9" t="n">
-        <v>343.0155132610399</v>
+        <v>342.0824983292284</v>
       </c>
       <c r="P9" t="n">
-        <v>255.7718404331337</v>
+        <v>255.0230136943056</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.5532711010011</v>
+        <v>120.0527002569832</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.61748182628831</v>
+        <v>27.38504710821884</v>
       </c>
       <c r="K10" t="n">
-        <v>176.5323263084932</v>
+        <v>176.150364665581</v>
       </c>
       <c r="L10" t="n">
-        <v>281.9879074019113</v>
+        <v>281.4991280037748</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8107744650524</v>
+        <v>307.2954251216459</v>
       </c>
       <c r="N10" t="n">
-        <v>305.9812337764082</v>
+        <v>305.4781382885255</v>
       </c>
       <c r="O10" t="n">
-        <v>266.4451176130444</v>
+        <v>265.9804275016205</v>
       </c>
       <c r="P10" t="n">
-        <v>204.2315630567353</v>
+        <v>203.8339403887147</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.12148936456056</v>
+        <v>56.84619603961035</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>261.2441555681004</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>442.7882971667129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>586.5925435820745</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>684.6865597696045</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>700.4259166283082</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>647.9223704754897</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>518.1372571698744</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.4401617824042</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>111.7595245570857</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>136.5873031355421</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>312.3937237631146</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>466.8423589907653</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>564.3354055038949</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>520.7904213083254</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>398.4518770538265</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.52520894784618</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.9051552846004</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>249.3105784362067</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>375.1190134501609</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>406.0044678483204</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>401.8401006047183</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>354.9862963361815</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>279.9938374156634</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.5753610663109</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318222</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396441</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367802</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462728</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902991</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193561</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243202</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683847</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924754</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390242</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.78523960077537</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.15822477541</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679017</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.328895167436</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641972</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238486</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113427</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295415</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096362</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191331</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010468</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899091</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.261899706047</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998993</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
